--- a/data/tabla 04-01.xlsx
+++ b/data/tabla 04-01.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\OLN-ISN\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bh" sheetId="1" r:id="rId1"/>
     <sheet name="cv" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>Nacional</t>
   </si>
@@ -45,18 +40,2317 @@
   <si>
     <t>Construcción</t>
   </si>
+  <si>
+    <t>Minería</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="37">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="611">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -203,7 +2497,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="240">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +2684,1018 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="503">
     <border>
       <left/>
       <right/>
@@ -402,12 +3706,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -470,13 +3770,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -699,99 +3992,5560 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="22" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="23" fillId="24" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="25" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="28" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="29" fillId="30" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="31" borderId="30" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="32" fillId="33" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="34" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="36" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="21" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="24" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="27" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="29" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="30" fillId="31" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="32" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="33" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="34" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="49" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="50" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="55" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="60" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="61" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="62" fillId="0" borderId="62" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="66" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="69" fillId="0" borderId="69" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="70" fillId="0" borderId="70" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="71" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="72" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="73" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="82" fillId="0" borderId="76" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="77" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="78" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="88" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="80" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="92" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="94" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="83" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="98" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="100" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="104" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="106" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="38" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="39" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="40" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="41" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="111" fillId="42" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="112" fillId="43" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="44" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="114" fillId="45" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="115" fillId="46" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="47" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="117" fillId="48" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="118" fillId="49" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="50" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="120" fillId="51" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="121" fillId="52" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="53" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="123" fillId="54" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="124" fillId="55" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="56" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="57" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="58" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="140" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="141" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="142" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="143" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="144" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="145" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="146" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="147" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="148" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="149" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="152" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="153" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="154" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="155" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="156" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="157" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="158" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="159" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="160" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="161" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="171" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="173" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="177" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="179" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="183" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="185" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="189" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="191" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="195" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="197" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="59" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="60" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="61" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="62" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="202" fillId="63" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="203" fillId="64" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="65" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="205" fillId="66" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="206" fillId="67" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="68" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="208" fillId="69" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="70" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="71" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="211" fillId="72" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="212" fillId="73" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="74" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="214" fillId="75" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="215" fillId="76" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="77" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="78" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="79" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="219" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="220" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="221" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="222" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="223" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="224" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="225" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="226" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="227" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="228" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="231" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="232" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="233" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="234" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="235" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="236" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="237" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="238" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="239" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="240" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="250" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="252" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="256" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="258" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="262" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="264" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="268" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="270" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="274" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="276" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="80" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="81" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="82" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="83" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="281" fillId="84" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="282" fillId="85" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="86" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="284" fillId="87" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="285" fillId="88" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="89" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="287" fillId="90" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="288" fillId="91" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="92" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="290" fillId="93" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="291" fillId="94" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="95" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="293" fillId="96" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="294" fillId="97" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="98" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="99" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="100" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="101" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="102" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="103" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="104" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="105" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="106" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="107" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="108" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="109" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="110" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="111" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="112" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="113" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="114" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="312" fillId="115" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="313" fillId="116" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="117" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="118" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="119" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="317" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="318" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="319" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="320" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="321" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="322" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="323" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="324" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="325" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="326" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="329" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="330" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="331" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="332" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="333" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="334" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="335" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="336" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="337" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="338" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="348" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="350" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="354" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="356" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="360" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="362" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="366" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="368" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="372" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="374" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="120" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="121" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="122" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="123" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="379" fillId="124" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="380" fillId="125" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="126" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="382" fillId="127" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="383" fillId="128" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="129" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="385" fillId="130" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="386" fillId="131" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="132" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="388" fillId="133" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="389" fillId="134" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="135" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="391" fillId="136" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="392" fillId="137" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="138" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="139" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="140" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="141" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="142" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="143" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="144" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="145" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="146" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="147" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="148" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="149" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="150" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="151" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="152" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="153" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="154" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="410" fillId="155" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="411" fillId="156" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="157" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="158" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="159" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="415" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="416" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="417" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="418" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="419" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="420" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="421" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="422" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="423" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="424" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="427" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="428" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="429" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="430" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="431" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="432" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="433" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="434" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="435" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="436" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="446" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="448" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="452" fillId="0" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="454" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="458" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="460" fillId="0" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="464" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="466" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="470" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="472" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="160" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="161" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="162" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="163" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="477" fillId="164" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="478" fillId="165" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="166" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="480" fillId="167" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="481" fillId="168" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="169" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="483" fillId="170" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="484" fillId="171" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="172" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="486" fillId="173" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="487" fillId="174" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="175" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="489" fillId="176" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="490" fillId="177" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="178" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="179" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="180" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="181" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="182" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="183" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="184" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="185" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="186" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="187" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="188" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="189" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="190" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="191" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="192" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="193" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="194" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="508" fillId="195" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="509" fillId="196" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="197" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="198" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="199" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="513" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="514" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="515" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="516" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="517" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="518" fillId="0" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="519" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="520" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="521" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="522" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="525" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="526" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="527" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="528" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="529" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="530" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="531" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="532" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="533" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="534" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="544" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="546" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="550" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="552" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="556" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="558" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="562" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="564" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="568" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="570" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="200" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="201" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="202" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="203" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="575" fillId="204" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="576" fillId="205" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="206" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="578" fillId="207" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="579" fillId="208" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="209" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="581" fillId="210" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="582" fillId="211" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="212" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="584" fillId="213" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="585" fillId="214" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="215" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="587" fillId="216" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="588" fillId="217" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="218" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="219" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="220" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="221" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="222" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="223" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="224" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="225" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="226" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="227" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="228" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="229" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="230" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="231" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="232" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="233" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="234" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="606" fillId="235" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="607" fillId="236" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="237" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="238" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="239" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,14 +9553,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1106,173 +9852,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="12" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="8.42578125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
+    <row r="2">
+      <c r="A2" s="420" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>7</v>
+      <c r="B2" s="421" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="422" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" s="405" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>41.925155639648438</v>
+      <c r="B3" s="387">
+        <v>41.490093231201172</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="388">
         <v>42.103965759277344</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4">
+      <c r="A4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>10.718928337097168</v>
+      <c r="B4" s="390">
+        <v>12.597118377685547</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="391">
         <v>11.905929565429688</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+    <row r="5">
+      <c r="A5" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>448.41336059570313</v>
+      <c r="B5" s="393">
+        <v>863.95391845703125</v>
       </c>
-      <c r="C5" s="10">
-        <v>461.95132446289063</v>
+      <c r="C5" s="394">
+        <v>461.95132446289062</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
+    <row r="6">
+      <c r="A6" s="411" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
-        <v>5.719602108001709</v>
+      <c r="B6" s="396">
+        <v>9.4102191925048828</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="397">
         <v>43.159320831298828</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+    <row r="7">
+      <c r="A7" s="417" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>9.6127490997314453</v>
+      <c r="B7" s="418">
+        <v>31.159860610961914</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="419">
         <v>16.337066650390625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A3:A3"/>
+    <mergeCell ref="A4:A4"/>
+    <mergeCell ref="A5:A5"/>
+    <mergeCell ref="A6:A6"/>
+    <mergeCell ref="A7:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="true" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35" t="s">
+    <row r="2">
+      <c r="A2" s="500" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>7</v>
+      <c r="B2" s="501" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="502" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
+    <row r="3">
+      <c r="A3" s="485" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
-        <v>0.47412702441215515</v>
+      <c r="B3" s="467">
+        <v>0.84065759181976318</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="468">
         <v>0.20747712254524231</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="21" t="s">
+    <row r="4">
+      <c r="A4" s="487" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
-        <v>0.54866772890090942</v>
+      <c r="B4" s="470">
+        <v>0.77376294136047363</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="471">
         <v>0.35264343023300171</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
+    <row r="5">
+      <c r="A5" s="489" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
-        <v>1.8125394582748413</v>
+      <c r="B5" s="473">
+        <v>3.6188843250274658</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="474">
         <v>1.4146496057510376</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="27" t="s">
+    <row r="6">
+      <c r="A6" s="491" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
-        <v>6.1677794456481934</v>
+      <c r="B6" s="476">
+        <v>8.2841224670410156</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="477">
         <v>0.41046878695487976</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+    <row r="7">
+      <c r="A7" s="497" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31">
-        <v>4.5406999588012695</v>
+      <c r="B7" s="498">
+        <v>3.8355860710144043</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="499">
         <v>1.545249342918396</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A3:A3"/>
+    <mergeCell ref="A4:A4"/>
+    <mergeCell ref="A5:A5"/>
+    <mergeCell ref="A6:A6"/>
+    <mergeCell ref="A7:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
